--- a/medicine/Enfance/Gilles_Del_Pappas/Gilles_Del_Pappas.xlsx
+++ b/medicine/Enfance/Gilles_Del_Pappas/Gilles_Del_Pappas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gilles Del Pappas, né le 14 décembre 1949 au Racati, un quartier populaire de Marseille, est un écrivain français, auteur de plusieurs romans policiers humoristiques et ouvrages de littérature d'enfance et de jeunesse.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils d'un père grec et d'une mère italienne, il s'intéresse très tôt à l'image, puis la photographie, tout d'abord la peinture et le cinéma. Et c'est par celui-ci qu'il appréhende l’écriture. Il publie en 1998 son premier roman, Le Baiser du congre, premier titre d'une série policière humoristique ayant pour héros Constantin le Grec. Il écrit dans la foulée deux autres récits sur la cité noire phocéenne Bleu sur la peau (1998) et Le Jobi du Racati (1999)[1]. Del Pappas[2] poursuit la série Constantin[1] et prolonge la série pendant deux décennies. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils d'un père grec et d'une mère italienne, il s'intéresse très tôt à l'image, puis la photographie, tout d'abord la peinture et le cinéma. Et c'est par celui-ci qu'il appréhende l’écriture. Il publie en 1998 son premier roman, Le Baiser du congre, premier titre d'une série policière humoristique ayant pour héros Constantin le Grec. Il écrit dans la foulée deux autres récits sur la cité noire phocéenne Bleu sur la peau (1998) et Le Jobi du Racati (1999). Del Pappas poursuit la série Constantin et prolonge la série pendant deux décennies. 
 En parallèle, il publie des romans humoristiques, des récits autobiographiques et des romans de littérature d'enfance et de jeunesse, dont la série ayant pour héroïne la détective amateur en culottes courtes Gwendoline Strawberry.
 En février 2002, Gilles Del Pappas reçoit le Grand prix littéraire de Provence pour l'ensemble de son œuvre et, en 2007, le prix du polar lycéen d'Aubusson pour Le Baiser du Congre. Il est l'un des auteurs représentatifs du polar méditerranéen.
 En 2010, la ville de Sablet lui remet le grand prix pour l’ensemble de son œuvre.
@@ -546,9 +560,11 @@
           <t>Engagement politique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2012, il soutient Jean-Luc Mélenchon, candidat du Front de gauche à l'élection présidentielle[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012, il soutient Jean-Luc Mélenchon, candidat du Front de gauche à l'élection présidentielle.
 </t>
         </is>
       </c>
@@ -579,9 +595,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Romans policiers
-Série Constantin le Grec
-Tous les titres, sauf mention, sont parus aux Éditions Jigal
+          <t>Série Constantin le Grec</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tous les titres, sauf mention, sont parus aux Éditions Jigal
 1998 : Le Baiser du congre,Prix du polar lycéen d'Aubusson, Grand Prix Littéraire de Provence
 1998 : Bleu sur la peau
 1999 : Le Jobi du Racati
@@ -603,46 +623,362 @@
 2012 : Joyeux Noël, Constantin !
 2014 : Le Grec s'emmêle
 2016 : Les Ratounes du diable
-2017 : Le Goya de Constantin
-Série Commissaire Clémentine Paccini avec Emmanuel Petit
-2019 : Dernier Tacle, Seuil
-2021 : Dribble assassin, Ramsay
-Autres romans policiers
-2000 : Massilia dreams, Librio, coll. « Librio noir » no 361 ; réédition, CLC, coll. « Rouge &amp; noir », 2004
+2017 : Le Goya de Constantin</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gilles_Del_Pappas</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilles_Del_Pappas</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Commissaire Clémentine Paccini avec Emmanuel Petit</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2019 : Dernier Tacle, Seuil
+2021 : Dribble assassin, Ramsay</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gilles_Del_Pappas</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilles_Del_Pappas</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres romans policiers</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2000 : Massilia dreams, Librio, coll. « Librio noir » no 361 ; réédition, CLC, coll. « Rouge &amp; noir », 2004
 2000 : 'Du jaune dans le noir, Édition Autrement
 2006: Sous la peau du monde, Édition Après la lune
 2007 : L'Indien blanc, Édition de l'Atelier In 8
 2010 : Attila et la magie blanche, Édition Au-delà du raisonnable
 2010 : Les Vies de Gustave, Édition Au-delà du raisonnable
 2012 : Troublante Incertitude, Black Coat Press/Rivière blanche, coll. « noire », no 39
-2015 : La Rascasse avant la bouillabaisse, Édition Lajouanie
-Romans
-2002 : Éclisse, Édition Laurent Carte
+2015 : La Rascasse avant la bouillabaisse, Édition Lajouanie</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gilles_Del_Pappas</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilles_Del_Pappas</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2002 : Éclisse, Édition Laurent Carte
 2002 : Mémoire d'un goûte-sauce, Édition L'Écailler du Sud
-2006 : Chinois vert mouillé, Édition Après la lune
-Ouvrage de littérature d'enfance et de jeunesse
-Série Les enquêtes de Gwendoline Strawberry
-2003 : Le Boiteux serbe (écrit en collaboration avec Luce Michel), CLC
+2006 : Chinois vert mouillé, Édition Après la lune</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gilles_Del_Pappas</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilles_Del_Pappas</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ouvrage de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Les enquêtes de Gwendoline Strawberry</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2003 : Le Boiteux serbe (écrit en collaboration avec Luce Michel), CLC
 2004 : L'Asiate aux yeux verts (écrit en collaboration avec Luce Michel), CLC
-2006 : Gwendoline boit la tasse (écrit en collaboration avec Luce Michel), CLC
-Autres ouvrages de littérature d'enfance et de jeunesse
-2004 : Cap'taine Solal et Shabada,  (dessins Chantal Hocdé), Édition Le Lutin Malin
-Récits autobiographiques
-Série Les Totos rasés
-2001 : Le Cabanon
+2006 : Gwendoline boit la tasse (écrit en collaboration avec Luce Michel), CLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gilles_Del_Pappas</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilles_Del_Pappas</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ouvrage de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Autres ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2004 : Cap'taine Solal et Shabada,  (dessins Chantal Hocdé), Édition Le Lutin Malin</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Gilles_Del_Pappas</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilles_Del_Pappas</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Récits autobiographiques</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Série Les Totos rasés</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2001 : Le Cabanon
 2002 : Du soleil dans la tête
 2014 : L'École dans les nuages
-2014 : Marseille au cœur
-Recueils de nouvelles
-2000 : L'Effet mer (en collaboration avec Jean-Paul Delfino, Michel Flayeux), Édition Bandol
-2005 : Le Noir dans le blanc (en collaboration avec Maurice Attia, Lilian Bathelot), Éditions Autres temps
-Nouvelles
-2000 : Un matin de Noël (incluse les 7 familles du polar), Éditions Baleine
+2014 : Marseille au cœur</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gilles_Del_Pappas</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilles_Del_Pappas</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2000 : L'Effet mer (en collaboration avec Jean-Paul Delfino, Michel Flayeux), Édition Bandol
+2005 : Le Noir dans le blanc (en collaboration avec Maurice Attia, Lilian Bathelot), Éditions Autres temps</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Gilles_Del_Pappas</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilles_Del_Pappas</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2000 : Un matin de Noël (incluse les 7 familles du polar), Éditions Baleine
 2002 : Le Sel de la vie (incluse dans l'édition des Mémoires d'un goûte sauce)
 2015 : Porte à Porte
-2020 : Mission Galéjade Marseillaise, Rouge Cent, Les éditions Arcane 17
-Autre publication
-2008 : Plages et calanques de Marseille, Édition les Beaux jours</t>
+2020 : Mission Galéjade Marseillaise, Rouge Cent, Les éditions Arcane 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Gilles_Del_Pappas</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilles_Del_Pappas</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Autre publication</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2008 : Plages et calanques de Marseille, Édition les Beaux jours</t>
         </is>
       </c>
     </row>
